--- a/docs/ST1/ST1_31.07.24_output.xlsx
+++ b/docs/ST1/ST1_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730737150.9069288</t>
+          <t>1731624116.2631798</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730737155.9534314</t>
+          <t>1731624121.427816</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730737150.9069288.png</t>
+          <t>./test_images/SBER1731624116.2631798.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730737155.9534314.png</t>
+          <t>./test_images/SBER1731624121.427816.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>-1.060000000000002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730737155.9693916</t>
+          <t>1731624121.4438016</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730737158.827751</t>
+          <t>1731624124.5916271</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730737155.9693916.png</t>
+          <t>./test_images/SBER1731624121.4438016.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730737158.827751.png</t>
+          <t>./test_images/SBER1731624124.5916271.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>-0.8100000000000023</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730737158.843709</t>
+          <t>1731624124.6085522</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730737163.2576482</t>
+          <t>1731624128.9975986</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730737158.843709.png</t>
+          <t>./test_images/SBER1731624124.6085522.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730737163.2576482.png</t>
+          <t>./test_images/SBER1731624128.9975986.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>0.9499999999999886</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -687,13 +702,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730737164.8686857</t>
+          <t>1731624130.5274854</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730737164.8686857.png</t>
+          <t>./test_images/SBER1731624130.5274854.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -710,8 +725,15 @@
       <c r="I6" t="n">
         <v>288.93</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>288.93</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -724,22 +746,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730737172.3931615</t>
+          <t>1731624137.983296</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730737178.8728633</t>
+          <t>1731624144.7714596</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730737172.3931615.png</t>
+          <t>./test_images/GAZP1731624137.983296.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730737178.8728633.png</t>
+          <t>./test_images/GAZP1731624144.7714596.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -759,6 +781,9 @@
         <v>133.5</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -773,22 +798,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730737183.399271</t>
+          <t>1731624149.4682817</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730737186.891244</t>
+          <t>1731624152.9057796</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730737183.399271.png</t>
+          <t>./test_images/GAZP1731624149.4682817.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730737186.891244.png</t>
+          <t>./test_images/GAZP1731624152.9057796.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -809,6 +834,9 @@
       </c>
       <c r="K8" t="n">
         <v>-0.3299999999999841</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="9">
@@ -822,13 +850,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730737186.9081705</t>
+          <t>1731624152.9217374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730737186.9081705.png</t>
+          <t>./test_images/GAZP1731624152.9217374.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -845,8 +873,15 @@
       <c r="I9" t="n">
         <v>133.33</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>133.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -859,22 +894,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730737198.682866</t>
+          <t>1731624165.2027092</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730737200.109542</t>
+          <t>1731624166.7831473</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737198.682866.png</t>
+          <t>./test_images/LKOH1731624165.2027092.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737200.109542.png</t>
+          <t>./test_images/LKOH1731624166.7831473.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -895,6 +930,9 @@
       </c>
       <c r="K10" t="n">
         <v>11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
@@ -908,22 +946,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730737203.601548</t>
+          <t>1731624170.3991964</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730737210.0251014</t>
+          <t>1731624176.7990518</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737203.601548.png</t>
+          <t>./test_images/LKOH1731624170.3991964.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737210.0251014.png</t>
+          <t>./test_images/LKOH1731624176.7990518.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -944,6 +982,9 @@
       </c>
       <c r="K11" t="n">
         <v>-10.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="12">
@@ -957,13 +998,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730737210.0440516</t>
+          <t>1731624176.814011</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730737210.0440516.png</t>
+          <t>./test_images/LKOH1731624176.814011.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -980,8 +1021,15 @@
       <c r="I12" t="n">
         <v>6789</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6789</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -994,22 +1042,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730737237.5868905</t>
+          <t>1731624205.6909578</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730737247.09516</t>
+          <t>1731624216.0015702</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737237.5868905.png</t>
+          <t>./test_images/ROSN1731624205.6909578.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737247.09516.png</t>
+          <t>./test_images/ROSN1731624216.0015702.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1030,6 +1078,9 @@
       </c>
       <c r="K13" t="n">
         <v>0.6999999999999318</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="14">
@@ -1043,13 +1094,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730737247.1110897</t>
+          <t>1731624216.0175278</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730737247.1110897.png</t>
+          <t>./test_images/ROSN1731624216.0175278.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1066,8 +1117,15 @@
       <c r="I14" t="n">
         <v>514.05</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>514.05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1080,22 +1138,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730737261.1152976</t>
+          <t>1731624230.6772666</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730737264.987096</t>
+          <t>1731624234.7393582</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737261.1152976.png</t>
+          <t>./test_images/NVTK1731624230.6772666.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737264.987096.png</t>
+          <t>./test_images/NVTK1731624234.7393582.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1116,6 +1174,9 @@
       </c>
       <c r="K15" t="n">
         <v>-3.599999999999909</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="16">
@@ -1129,22 +1190,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730737265.0040238</t>
+          <t>1731624234.7563403</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730737275.4183385</t>
+          <t>1731624245.884973</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737265.0040238.png</t>
+          <t>./test_images/NVTK1731624234.7563403.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730737275.4183385.png</t>
+          <t>./test_images/NVTK1731624245.884973.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1165,6 +1226,9 @@
       </c>
       <c r="K16" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="17">
@@ -1178,22 +1242,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730737281.2651286</t>
+          <t>1731624252.0506382</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730737287.7087252</t>
+          <t>1731624258.978256</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730737281.2651286.png</t>
+          <t>./test_images/CNY1731624252.0506382.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730737287.7087252.png</t>
+          <t>./test_images/CNY1731624258.978256.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1214,6 +1278,9 @@
       </c>
       <c r="K17" t="n">
         <v>-0.01700000000000124</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="18">
@@ -1227,13 +1294,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730737287.724193</t>
+          <t>1731624258.9941864</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730737287.724193.png</t>
+          <t>./test_images/CNY1731624258.9941864.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1250,8 +1317,15 @@
       <c r="I18" t="n">
         <v>11.967</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>11.967</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1264,22 +1338,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730737311.867218</t>
+          <t>1731624283.9689515</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1730737319.387839</t>
+          <t>1731624291.9865398</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737311.867218.png</t>
+          <t>./test_images/GMKN1731624283.9689515.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737319.387839.png</t>
+          <t>./test_images/GMKN1731624291.9865398.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1300,6 +1374,9 @@
       </c>
       <c r="K19" t="n">
         <v>-1.900000000000006</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-1.49</v>
       </c>
     </row>
     <row r="20">
@@ -1313,22 +1390,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730737319.4037983</t>
+          <t>1731624292.0025015</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730737321.1069562</t>
+          <t>1731624293.8925571</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737319.4037983.png</t>
+          <t>./test_images/GMKN1731624292.0025015.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737321.1069562.png</t>
+          <t>./test_images/GMKN1731624293.8925571.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1349,6 +1426,9 @@
       </c>
       <c r="K20" t="n">
         <v>1.259999999999991</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="21">
@@ -1362,13 +1442,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730737322.675576</t>
+          <t>1731624295.581059</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730737322.675576.png</t>
+          <t>./test_images/GMKN1731624295.581059.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1385,8 +1465,15 @@
       <c r="I21" t="n">
         <v>129.88</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>129.88</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1399,22 +1486,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730737344.649091</t>
+          <t>1731624318.4138467</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730737349.1872075</t>
+          <t>1731624323.1164963</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730737344.649091.png</t>
+          <t>./test_images/NLMK1731624318.4138467.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730737349.1872075.png</t>
+          <t>./test_images/NLMK1731624323.1164963.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1435,6 +1522,9 @@
       </c>
       <c r="K22" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1448,22 +1538,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730737367.7294185</t>
+          <t>1731624342.6966724</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730737375.7837906</t>
+          <t>1731624351.086138</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730737367.7294185.png</t>
+          <t>./test_images/MAGN1731624342.6966724.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730737375.7837906.png</t>
+          <t>./test_images/MAGN1731624351.086138.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1484,6 +1574,9 @@
       </c>
       <c r="K23" t="n">
         <v>0.4600000000000009</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1497,22 +1590,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730737379.7309005</t>
+          <t>1731624355.209909</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730737384.5196998</t>
+          <t>1731624360.3185034</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730737379.7309005.png</t>
+          <t>./test_images/MAGN1731624355.209909.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730737384.5196998.png</t>
+          <t>./test_images/MAGN1731624360.3185034.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1533,6 +1626,9 @@
       </c>
       <c r="K24" t="n">
         <v>-0.004999999999995453</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25">
@@ -1546,22 +1642,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730737387.9865224</t>
+          <t>1731624363.9546406</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730737394.6045837</t>
+          <t>1731624370.9135768</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737387.9865224.png</t>
+          <t>./test_images/CHMF1731624363.9546406.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737394.6045837.png</t>
+          <t>./test_images/CHMF1731624370.9135768.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1582,6 +1678,9 @@
       </c>
       <c r="K25" t="n">
         <v>-7.200000000000045</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26">
@@ -1595,22 +1694,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730737394.6215396</t>
+          <t>1731624370.9295325</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730737398.102901</t>
+          <t>1731624374.5339725</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737394.6215396.png</t>
+          <t>./test_images/CHMF1731624370.9295325.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737398.102901.png</t>
+          <t>./test_images/CHMF1731624374.5339725.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1631,6 +1730,9 @@
       </c>
       <c r="K26" t="n">
         <v>4.199999999999818</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
@@ -1644,13 +1746,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730737398.118832</t>
+          <t>1731624374.549919</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730737398.118832.png</t>
+          <t>./test_images/CHMF1731624374.549919.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1667,8 +1769,15 @@
       <c r="I27" t="n">
         <v>1414.4</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1414.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1681,22 +1790,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730737413.9261785</t>
+          <t>1731624390.7258523</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730737421.0992525</t>
+          <t>1731624398.3396196</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737413.9261785.png</t>
+          <t>./test_images/ALRS1731624390.7258523.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737421.0992525.png</t>
+          <t>./test_images/ALRS1731624398.3396196.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1717,6 +1826,9 @@
       </c>
       <c r="K28" t="n">
         <v>-0.1300000000000026</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="29">
@@ -1730,22 +1842,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730737421.1161795</t>
+          <t>1731624398.3566043</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730737425.025456</t>
+          <t>1731624402.6315248</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737421.1161795.png</t>
+          <t>./test_images/ALRS1731624398.3566043.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737425.025456.png</t>
+          <t>./test_images/ALRS1731624402.6315248.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1766,6 +1878,9 @@
       </c>
       <c r="K29" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="30">
@@ -1779,22 +1894,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730737425.043408</t>
+          <t>1731624402.6484523</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730737429.736133</t>
+          <t>1731624407.653606</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737425.043408.png</t>
+          <t>./test_images/ALRS1731624402.6484523.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737429.736133.png</t>
+          <t>./test_images/ALRS1731624407.653606.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1815,6 +1930,9 @@
       </c>
       <c r="K30" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="31">
@@ -1828,22 +1946,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730737429.753082</t>
+          <t>1731624407.6705327</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730737431.4916232</t>
+          <t>1731624409.3420305</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737429.753082.png</t>
+          <t>./test_images/ALRS1731624407.6705327.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730737431.4916232.png</t>
+          <t>./test_images/ALRS1731624409.3420305.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1864,6 +1982,9 @@
       </c>
       <c r="K31" t="n">
         <v>0.2100000000000009</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="32">
@@ -1877,22 +1998,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730737448.7699795</t>
+          <t>1731624426.658391</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730737457.8539183</t>
+          <t>1731624435.163466</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730737448.7699795.png</t>
+          <t>./test_images/SELG1731624426.658391.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730737457.8539183.png</t>
+          <t>./test_images/SELG1731624435.163466.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1913,6 +2034,9 @@
       </c>
       <c r="K32" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="33">
@@ -1926,13 +2050,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730737460.670131</t>
+          <t>1731624437.842097</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730737460.670131.png</t>
+          <t>./test_images/SELG1731624437.842097.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1949,8 +2073,15 @@
       <c r="I33" t="n">
         <v>57.9</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1963,22 +2094,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730737468.8288615</t>
+          <t>1731624445.6512256</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1730737475.046323</t>
+          <t>1731624451.99486</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730737468.8288615.png</t>
+          <t>./test_images/SOFL1731624445.6512256.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730737475.046323.png</t>
+          <t>./test_images/SOFL1731624451.99486.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1999,6 +2130,9 @@
       </c>
       <c r="K34" t="n">
         <v>1.099999999999994</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="35">
@@ -2012,13 +2146,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730737485.9160984</t>
+          <t>1731624463.3153164</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730737485.9160984.png</t>
+          <t>./test_images/SOFL1731624463.3153164.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2035,8 +2169,15 @@
       <c r="I35" t="n">
         <v>143.94</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>143.94</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2049,13 +2190,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730737495.4145088</t>
+          <t>1731624473.004646</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730737495.4145088.png</t>
+          <t>./test_images/ABIO1731624473.004646.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2072,8 +2213,15 @@
       <c r="I36" t="n">
         <v>85.36</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>85.36</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2086,22 +2234,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730737521.5407689</t>
+          <t>1731624499.8368316</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730737535.3096905</t>
+          <t>1731624514.3958454</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730737521.5407689.png</t>
+          <t>./test_images/BSPB1731624499.8368316.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730737535.3096905.png</t>
+          <t>./test_images/BSPB1731624514.3958454.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2122,6 +2270,9 @@
       </c>
       <c r="K37" t="n">
         <v>-2.430000000000007</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="38">
@@ -2135,13 +2286,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730737535.32744</t>
+          <t>1731624514.4128006</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730737535.32744.png</t>
+          <t>./test_images/BSPB1731624514.4128006.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2158,8 +2309,15 @@
       <c r="I38" t="n">
         <v>373.8</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2172,22 +2330,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730737546.464946</t>
+          <t>1731624525.845411</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730737547.537709</t>
+          <t>1731624526.9078765</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730737546.464946.png</t>
+          <t>./test_images/FEES1731624525.845411.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730737547.537709.png</t>
+          <t>./test_images/FEES1731624526.9078765.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2208,6 +2366,9 @@
       </c>
       <c r="K39" t="n">
         <v>0.0008599999999999997</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="40">
@@ -2221,22 +2382,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730737549.4131641</t>
+          <t>1731624528.7682567</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1730737554.0739899</t>
+          <t>1731624533.2994463</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730737549.4131641.png</t>
+          <t>./test_images/FEES1731624528.7682567.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730737554.0739899.png</t>
+          <t>./test_images/FEES1731624533.2994463.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2257,6 +2418,9 @@
       </c>
       <c r="K40" t="n">
         <v>0.0005000000000000004</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="41">
@@ -2270,22 +2434,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730737554.0919158</t>
+          <t>1731624533.3164003</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1730737560.8069847</t>
+          <t>1731624539.6030095</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730737554.0919158.png</t>
+          <t>./test_images/FEES1731624533.3164003.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730737560.8069847.png</t>
+          <t>./test_images/FEES1731624539.6030095.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2306,6 +2470,9 @@
       </c>
       <c r="K41" t="n">
         <v>-0.0008799999999999919</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="42">
@@ -2319,22 +2486,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730737560.8239121</t>
+          <t>1731624539.6199634</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1730737569.8754423</t>
+          <t>1731624548.4717426</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730737560.8239121.png</t>
+          <t>./test_images/FEES1731624539.6199634.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730737569.8754423.png</t>
+          <t>./test_images/FEES1731624548.4717426.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2355,6 +2522,9 @@
       </c>
       <c r="K42" t="n">
         <v>0.0005799999999999972</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="43">
@@ -2368,22 +2538,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730737575.1020563</t>
+          <t>1731624553.9349487</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1730737597.2627466</t>
+          <t>1731624576.9358456</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730737575.1020563.png</t>
+          <t>./test_images/RUAL1731624553.9349487.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730737597.2627466.png</t>
+          <t>./test_images/RUAL1731624576.9358456.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2404,6 +2574,9 @@
       </c>
       <c r="K43" t="n">
         <v>-0.1000000000000014</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2441,226 +2614,394 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001060000000000005</v>
+        <v>-0.9200000000000159</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.230000000000004</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1799999999999926</v>
+        <v>0.001060000000000005</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.0002650000000000013</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9200000000000159</v>
+        <v>0.1799999999999926</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04499999999999815</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4550000000000054</v>
+        <v>-3.000000000000227</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.000000000000076</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.000000000000227</v>
+        <v>-0.3299999999999841</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.1099999999999947</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3299999999999841</v>
+        <v>-0.6400000000000148</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.2133333333333383</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6400000000000148</v>
+        <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5</v>
+        <v>0.4550000000000054</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.2275000000000027</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.399999999999864</v>
+        <v>-2.430000000000007</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>-1.215000000000003</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.099999999999994</v>
+        <v>-0.01700000000000124</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.008500000000000618</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.430000000000007</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5499999999999972</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01700000000000124</v>
+        <v>-2.399999999999864</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.199999999999932</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1200000000000045</v>
+        <v>0.6999999999999318</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6999999999999318</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03500000000000014</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07000000000000028</v>
+        <v>-0.1000000000000014</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2675,6 +3016,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/ST1/ST1_31.07.24_output.xlsx
+++ b/docs/ST1/ST1_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731624116.2631798</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731624121.427816</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731624116.2631798.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731624121.427816.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>288.93</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.99</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.060000000000002</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731624121.4438016</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731624124.5916271</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731624121.4438016.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731624124.5916271.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.99</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.18</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.8100000000000023</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731624124.6085522</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731624128.9975986</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731624124.6085522.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731624128.9975986.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.18</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>288.23</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731624130.5274854</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731624130.5274854.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731624130.5274854.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>288.93</v>
       </c>
-      <c r="J6" t="n">
-        <v>288.93</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>289.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.2199999999999704</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731624137.983296</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731624144.7714596</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731624137.983296.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731624144.7714596.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731624149.4682817</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731624152.9057796</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731624149.4682817.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731624152.9057796.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.66</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.33</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3299999999999841</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -843,95 +895,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731624152.9217374</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731624152.9217374.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731624152.9217374.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.33</v>
       </c>
-      <c r="J9" t="n">
-        <v>133.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>133.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.01999999999998181</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731624165.2027092</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731624166.7831473</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731624165.2027092.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731624166.7831473.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6783.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>11</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -939,51 +1003,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731624170.3991964</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731624176.7990518</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731624170.3991964.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731624176.7990518.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6778.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6789</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-10.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -991,95 +1061,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731624176.814011</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731624176.814011.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731624176.814011.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6789</v>
       </c>
-      <c r="J12" t="n">
-        <v>6789</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6747.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-41.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731624205.6909578</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731624216.0015702</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731624205.6909578.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731624216.0015702.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>513.35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>514.05</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.6999999999999318</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1087,95 +1169,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731624216.0175278</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731624216.0175278.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731624216.0175278.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>514.05</v>
       </c>
-      <c r="J14" t="n">
-        <v>514.05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>514.95</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.9000000000000909</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731624230.6772666</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731624234.7393582</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731624230.6772666.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731624234.7393582.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1037</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1040.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-3.599999999999909</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1183,51 +1277,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731624234.7563403</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731624245.884973</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731624234.7563403.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731624245.884973.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1040.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1041.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1235,51 +1335,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731624252.0506382</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731624258.978256</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731624252.0506382.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731624258.978256.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>11.95</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>11.967</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.01700000000000124</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1287,95 +1393,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731624258.9941864</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731624258.9941864.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731624258.9941864.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>11.967</v>
       </c>
-      <c r="J18" t="n">
-        <v>11.967</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>11.859</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1080000000000005</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731624283.9689515</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731624291.9865398</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731624283.9689515.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731624291.9865398.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.900000000000006</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-1.49</v>
       </c>
     </row>
@@ -1383,51 +1501,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731624292.0025015</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731624293.8925571</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731624292.0025015.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731624293.8925571.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>129.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>130.66</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.259999999999991</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -1435,95 +1559,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731624295.581059</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731624295.581059.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731624295.581059.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.88</v>
       </c>
-      <c r="J21" t="n">
-        <v>129.88</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>129.82</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731624318.4138467</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731624323.1164963</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731624318.4138467.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731624323.1164963.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>165.12</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>165.24</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1531,51 +1667,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731624342.6966724</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731624351.086138</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731624342.6966724.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731624351.086138.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>51.07</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>50.61</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.4600000000000009</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.8999999999999999</v>
       </c>
     </row>
@@ -1583,51 +1725,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731624355.209909</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731624360.3185034</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731624355.209909.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731624360.3185034.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>50.715</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>50.72</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1635,51 +1783,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731624363.9546406</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731624370.9135768</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731624363.9546406.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731624370.9135768.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1425.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1418.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-7.200000000000045</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1687,51 +1841,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731624370.9295325</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731624374.5339725</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731624370.9295325.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731624374.5339725.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1418.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1414.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>4.199999999999818</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1739,95 +1899,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731624374.549919</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731624374.549919.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731624374.549919.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1414.4</v>
       </c>
-      <c r="J27" t="n">
-        <v>1414.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1416.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.199999999999818</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731624390.7258523</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731624398.3396196</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624390.7258523.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624398.3396196.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>61.11</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>60.98</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.1300000000000026</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1835,51 +2007,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731624398.3566043</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731624402.6315248</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624398.3566043.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624402.6315248.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>60.98</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>60.82</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1887,51 +2065,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731624402.6484523</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731624407.653606</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624402.6484523.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624407.653606.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>60.82</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>60.76</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1939,51 +2123,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731624407.6705327</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731624409.3420305</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624407.6705327.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731624409.3420305.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>60.76</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>60.55</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1991,51 +2181,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731624426.658391</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731624435.163466</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/SELG1731624426.658391.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/SELG1731624435.163466.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>57.72</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>57.65</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2043,95 +2239,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731624437.842097</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731624437.842097.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731624437.842097.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>57.9</v>
       </c>
-      <c r="J33" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>58.8</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.8999999999999986</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1.55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731624445.6512256</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731624451.99486</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731624445.6512256.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731624451.99486.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>142.22</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>143.32</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -2139,139 +2347,157 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731624463.3153164</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731624463.3153164.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731624463.3153164.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>143.94</v>
       </c>
-      <c r="J35" t="n">
-        <v>143.94</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>143.66</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731624473.004646</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731624473.004646.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731624473.004646.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>85.36</v>
       </c>
-      <c r="J36" t="n">
-        <v>85.36</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>84.88</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.480000000000004</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731624499.8368316</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731624514.3958454</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731624499.8368316.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731624514.3958454.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>376.23</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>373.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-2.430000000000007</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -2279,95 +2505,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731624514.4128006</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731624514.4128006.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731624514.4128006.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>373.8</v>
       </c>
-      <c r="J38" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>376.43</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-2.629999999999995</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731624525.845411</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731624526.9078765</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/FEES1731624525.845411.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/FEES1731624526.9078765.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>0.09754</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.0984</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0008599999999999997</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -2375,51 +2613,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731624528.7682567</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731624533.2994463</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731624528.7682567.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/FEES1731624533.2994463.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>0.09812000000000001</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.0005000000000000004</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2427,51 +2671,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731624533.3164003</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731624539.6030095</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731624533.3164003.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731624539.6030095.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.0008799999999999919</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -2479,51 +2729,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731624539.6199634</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731624548.4717426</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/FEES1731624539.6199634.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/FEES1731624548.4717426.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.10008</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.0005799999999999972</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -2531,51 +2787,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731624553.9349487</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731624576.9358456</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731624553.9349487.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731624576.9358456.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>34.735</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>34.635</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2637,19 +2899,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9200000000000159</v>
+        <v>-1.139999999999986</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.230000000000004</v>
+        <v>-0.2849999999999966</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.32</v>
+        <v>-0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3">
@@ -2703,19 +2965,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.000000000000227</v>
+        <v>-0.8000000000004093</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.000000000000076</v>
+        <v>-0.2666666666668031</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6">
@@ -2725,19 +2987,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3299999999999841</v>
+        <v>-0.3499999999999659</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1099999999999947</v>
+        <v>-0.1166666666666553</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="7">
@@ -2747,19 +3009,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6400000000000148</v>
+        <v>-0.5800000000000125</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2133333333333383</v>
+        <v>-0.1933333333333375</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.52</v>
+        <v>-0.47</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="8">
@@ -2769,19 +3031,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
+        <v>-41</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1666666666666667</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01000000000000001</v>
+        <v>-0.6</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9">
@@ -2813,19 +3075,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.430000000000007</v>
+        <v>-5.060000000000002</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.215000000000003</v>
+        <v>-2.530000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.65</v>
+        <v>-1.35</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.32</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="11">
@@ -2835,19 +3097,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01700000000000124</v>
+        <v>-0.1250000000000018</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.008500000000000618</v>
+        <v>-0.06250000000000089</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.14</v>
+        <v>-1.04</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="12">
@@ -2857,19 +3119,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.099999999999994</v>
+        <v>1.379999999999995</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5499999999999972</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="E12" t="n">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="F12" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="13">
@@ -2901,19 +3163,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6999999999999318</v>
+        <v>-0.2000000000001592</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3499999999999659</v>
+        <v>-0.1000000000000796</v>
       </c>
       <c r="E14" t="n">
-        <v>0.14</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="15">
@@ -2923,19 +3185,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07000000000000028</v>
+        <v>-0.8299999999999983</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03500000000000014</v>
+        <v>-0.4149999999999991</v>
       </c>
       <c r="E15" t="n">
-        <v>0.12</v>
+        <v>-1.43</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="16">
@@ -2945,19 +3207,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.5599999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="17">
